--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trisha Lim\Documents\GitHub\MoneyTor\TV5 Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16660" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Sheet" sheetId="1" r:id="rId1"/>
@@ -21,10 +16,15 @@
     <sheet name="Configuration Management" sheetId="7" r:id="rId7"/>
     <sheet name="PMC" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Daniel Kenneth Sandimas - Personal View" guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="8"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +34,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="256">
   <si>
     <t>Project Name</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>*USER AUTHENTICATION</t>
+  </si>
+  <si>
+    <t>GitHub Online Repository stored in https://github.com/TV5/MoneyTor</t>
   </si>
 </sst>
 </file>
@@ -949,7 +952,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Php&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1417,7 +1420,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,10 +1432,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,10 +1458,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,16 +1634,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,13 +1652,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,7 +1670,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1680,7 +1683,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1692,7 +1695,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1707,7 +1710,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1720,7 +1723,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1731,7 +1734,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1762,7 +1765,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1773,7 +1776,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1782,7 +1785,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2107,6 +2110,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2182,9 +2188,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2194,29 +2224,20 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2224,21 +2245,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2261,9 +2267,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2359,14 +2362,14 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -2693,7 +2696,7 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -2735,7 +2738,7 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -2762,29 +2765,29 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25">
+    <row r="2" spans="2:7" ht="23">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25">
+    <row r="3" spans="2:7" ht="23">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:7" ht="23.25">
+    <row r="4" spans="2:7" ht="23">
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
     </row>
@@ -2800,10 +2803,10 @@
       <c r="C6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="116"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="88" t="s">
         <v>6</v>
       </c>
@@ -2818,10 +2821,10 @@
       <c r="C7" s="90">
         <v>40207</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="115"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="91" t="s">
         <v>9</v>
       </c>
@@ -2836,10 +2839,10 @@
       <c r="C8" s="90">
         <v>40220</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="91" t="s">
         <v>12</v>
       </c>
@@ -2854,10 +2857,10 @@
       <c r="C9" s="90">
         <v>40242</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="91" t="s">
         <v>12</v>
       </c>
@@ -2868,24 +2871,24 @@
     <row r="10" spans="2:7">
       <c r="B10" s="41"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
     </row>
@@ -2896,7 +2899,6 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0">
       <selection activeCell="G6" sqref="G6"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -2913,6 +2915,11 @@
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2920,21 +2927,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.25">
+    <row r="2" spans="2:5" ht="23">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2949,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:5" ht="23.25">
+    <row r="3" spans="2:5" ht="23">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2966,35 +2973,35 @@
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:5" ht="16.350000000000001" customHeight="1">
-      <c r="B7" s="120" t="s">
+    <row r="7" spans="2:5" ht="16.25" customHeight="1">
+      <c r="B7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="120"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="76" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="35"/>
     </row>
-    <row r="8" spans="2:5" ht="16.350000000000001" customHeight="1">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
+    <row r="8" spans="2:5" ht="16.25" customHeight="1">
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="77" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
+    <row r="9" spans="2:5" ht="14.75" customHeight="1">
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="77" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="56"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="78" t="s">
         <v>20</v>
       </c>
@@ -3005,18 +3012,18 @@
         <v>21</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="77"/>
       <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="119"/>
+      <c r="E12" s="120"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="77"/>
@@ -3048,7 +3055,7 @@
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="78"/>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="115" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3268,7 +3275,6 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A13">
       <selection activeCell="E19" sqref="E19:E23"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -3279,9 +3285,14 @@
     <mergeCell ref="B7:C10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3289,21 +3300,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" customWidth="1"/>
+    <col min="6" max="6" width="59.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.25">
+    <row r="2" spans="2:6" ht="23">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3323,7 @@
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="2:6" ht="23.25">
+    <row r="3" spans="2:6" ht="23">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
@@ -3334,51 +3345,51 @@
       <c r="B6" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
     </row>
     <row r="7" spans="2:6" ht="12.75" customHeight="1">
       <c r="B7" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4" t="s">
@@ -3393,11 +3404,11 @@
       <c r="B13" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="39" t="s">
@@ -3408,10 +3419,10 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="67" t="s">
         <v>54</v>
       </c>
@@ -3475,7 +3486,6 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" scale="145" showGridLines="0" topLeftCell="A7">
       <selection activeCell="C17" sqref="C17:C20"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -3493,6 +3503,11 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3504,18 +3519,18 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="51" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25">
+    <row r="2" spans="2:7" ht="23">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3540,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25">
+    <row r="3" spans="2:7" ht="23">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3618,28 +3633,28 @@
       <c r="E11" s="93"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="136"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="136"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="137"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="136"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="137"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="47" t="s">
@@ -3648,16 +3663,16 @@
       <c r="C15" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="136"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="E17" s="6"/>
@@ -3673,10 +3688,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="129"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="94" t="s">
         <v>79</v>
       </c>
@@ -3690,7 +3705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="68.650000000000006" customHeight="1">
+    <row r="20" spans="2:7" ht="68.75" customHeight="1">
       <c r="B20" s="52" t="s">
         <v>44</v>
       </c>
@@ -3713,14 +3728,14 @@
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="132"/>
-    </row>
-    <row r="22" spans="2:7" ht="202.9" customHeight="1">
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
+    </row>
+    <row r="22" spans="2:7" ht="203" customHeight="1">
       <c r="B22" s="57"/>
       <c r="C22" s="21" t="s">
         <v>13</v>
@@ -3741,12 +3756,12 @@
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
     </row>
     <row r="24" spans="2:7" ht="137.25" customHeight="1">
       <c r="B24" s="52" t="s">
@@ -3771,14 +3786,14 @@
     <row r="25" spans="2:7" ht="18" customHeight="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="130" t="s">
+      <c r="D25" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="132"/>
-    </row>
-    <row r="26" spans="2:7" ht="60">
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
+    </row>
+    <row r="26" spans="2:7" ht="42">
       <c r="B26" s="52" t="s">
         <v>44</v>
       </c>
@@ -3801,14 +3816,14 @@
     <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132"/>
-    </row>
-    <row r="28" spans="2:7" ht="225">
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
+    </row>
+    <row r="28" spans="2:7" ht="182">
       <c r="B28" s="52" t="s">
         <v>44</v>
       </c>
@@ -3831,12 +3846,12 @@
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="2:7" ht="135.75" customHeight="1">
       <c r="B30" s="52" t="s">
@@ -3862,11 +3877,11 @@
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
-      <c r="E31" s="132" t="s">
+      <c r="E31" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
     </row>
     <row r="32" spans="2:7" ht="135.75" customHeight="1">
       <c r="B32" s="52" t="s">
@@ -3891,14 +3906,14 @@
     <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="130" t="s">
+      <c r="D33" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="132"/>
-    </row>
-    <row r="34" spans="2:7" ht="176.1" customHeight="1">
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+    </row>
+    <row r="34" spans="2:7" ht="176" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>73</v>
       </c>
@@ -3921,18 +3936,17 @@
     <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="133" t="s">
+      <c r="D35" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A22">
       <selection activeCell="G20" sqref="G20"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -3958,6 +3972,11 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3969,23 +3988,23 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="255" width="8.85546875" customWidth="1"/>
+    <col min="6" max="255" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="23.25">
+    <row r="2" spans="2:3" ht="23">
       <c r="B2" s="106" t="s">
         <v>231</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="2:3" ht="23.25">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
@@ -4126,7 +4145,6 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0">
       <selection activeCell="B14" sqref="B14"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -4134,6 +4152,11 @@
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4145,17 +4168,17 @@
       <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="108.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="6.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="108.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.25">
+    <row r="2" spans="2:5" ht="23">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4186,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" ht="23.25">
+    <row r="3" spans="2:5" ht="23">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4183,66 +4206,66 @@
       <c r="B6" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="148" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="141"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="142"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="149"/>
-      <c r="C9" s="143" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="152" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="143"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="149"/>
-      <c r="C10" s="143" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="143"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="149"/>
-      <c r="C11" s="151" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="151"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="149"/>
-      <c r="C12" s="151" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="151"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="147" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4254,7 +4277,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="150"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>136</v>
@@ -4262,7 +4285,7 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="150"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="24" t="s">
         <v>137</v>
       </c>
@@ -4272,7 +4295,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="148" t="s">
         <v>139</v>
       </c>
       <c r="C16" s="62" t="s">
@@ -4281,269 +4304,269 @@
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="140"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="63"/>
       <c r="D17" s="97" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="140"/>
-      <c r="C18" s="144" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="145" t="s">
+      <c r="D18" s="142" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="140"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="30"/>
       <c r="D19" s="98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="140"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="30"/>
       <c r="D20" s="98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="140"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="30" t="s">
         <v>146</v>
       </c>
       <c r="D21" s="98"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="140"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="30"/>
       <c r="D22" s="98" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="140"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="30"/>
       <c r="D23" s="98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="140"/>
-      <c r="C24" s="144" t="s">
+      <c r="B24" s="148"/>
+      <c r="C24" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="145"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="140"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="30"/>
       <c r="D25" s="98" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="140"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="30"/>
       <c r="D26" s="98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="140"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="30"/>
       <c r="D27" s="98" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="140"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="30"/>
       <c r="D28" s="98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="140"/>
-      <c r="C29" s="144" t="s">
+      <c r="B29" s="148"/>
+      <c r="C29" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="145" t="s">
+      <c r="D29" s="142" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="140"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="30"/>
       <c r="D30" s="98" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="140"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="30"/>
       <c r="D31" s="98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="140"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="30"/>
       <c r="D32" s="98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="140"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="30"/>
       <c r="D33" s="98" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="140"/>
-      <c r="C34" s="144" t="s">
+      <c r="B34" s="148"/>
+      <c r="C34" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="145"/>
+      <c r="D34" s="142"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="140"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="30"/>
       <c r="D35" s="98" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="140"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="30"/>
       <c r="D36" s="98" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="140"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="30"/>
       <c r="D37" s="98" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="140"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="30"/>
       <c r="D38" s="98" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="140"/>
-      <c r="C39" s="144" t="s">
+      <c r="B39" s="148"/>
+      <c r="C39" s="141" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="142" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="140"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="30"/>
       <c r="D40" s="98" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B41" s="140"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="30"/>
       <c r="D41" s="98" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="140"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="30"/>
       <c r="D42" s="98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="140"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="30"/>
       <c r="D43" s="98" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="140"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="30" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="98"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="140"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="30"/>
       <c r="D45" s="98" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="140"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="36"/>
       <c r="D46" s="99" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="140"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="36"/>
       <c r="D47" s="99" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="140"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="36"/>
       <c r="D48" s="99" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="140"/>
-      <c r="C49" s="144" t="s">
+      <c r="B49" s="148"/>
+      <c r="C49" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="145" t="s">
+      <c r="D49" s="142" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="140"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="140"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="30"/>
       <c r="D51" s="98" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="140"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="36"/>
       <c r="D52" s="102" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="140"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="147" t="s">
+      <c r="B53" s="148"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4634,12 +4657,16 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A36">
       <selection activeCell="D58" sqref="D58"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4652,15 +4679,15 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4668,21 +4695,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="108.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="6.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="108.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.25">
+    <row r="2" spans="2:5" ht="23">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4690,7 +4717,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" ht="23.25">
+    <row r="3" spans="2:5" ht="23">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4710,58 +4737,58 @@
       <c r="B6" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="140" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="140"/>
+      <c r="C6" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="141"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="158" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="152"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="158"/>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="156"/>
+      <c r="C9" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="153"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="158"/>
-      <c r="C10" s="154" t="s">
+      <c r="B10" s="156"/>
+      <c r="C10" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="154"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="158"/>
-      <c r="C11" s="154" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="147" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4773,7 +4800,7 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="150"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
         <v>136</v>
@@ -4781,7 +4808,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="150"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="24" t="s">
         <v>137</v>
       </c>
@@ -4791,25 +4818,25 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="153" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="153"/>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="150"/>
-      <c r="C16" s="156" t="s">
+      <c r="B16" s="147"/>
+      <c r="C16" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="154"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="150"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
@@ -4898,12 +4925,16 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A10">
       <selection activeCell="D18" sqref="D18"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -4911,15 +4942,15 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4931,23 +4962,23 @@
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="69.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="23.25">
+    <row r="2" spans="2:4" ht="23">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" ht="23.25">
+    <row r="3" spans="2:4" ht="23">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4965,52 +4996,51 @@
       <c r="B7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="160" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="148"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="162"/>
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="163" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="162"/>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="164"/>
-    </row>
-    <row r="11" spans="2:4" ht="33.6" customHeight="1">
+      <c r="D10" s="165"/>
+    </row>
+    <row r="11" spans="2:4" ht="33.5" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="166" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="166"/>
+      <c r="D11" s="167"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0">
       <selection activeCell="C9" sqref="C9:D9"/>
-      <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -5023,8 +5053,13 @@
     <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16660" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Sheet" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="250">
   <si>
     <t>Project Name</t>
   </si>
@@ -149,25 +149,7 @@
     <t>Confirmed by</t>
   </si>
   <si>
-    <t>New Document</t>
-  </si>
-  <si>
-    <t>Project coordinator Name</t>
-  </si>
-  <si>
-    <t>Project Leader Name</t>
-  </si>
-  <si>
-    <t>Revised Document</t>
-  </si>
-  <si>
-    <t>Plans vs. Zombies</t>
-  </si>
-  <si>
     <t>Project Leader</t>
-  </si>
-  <si>
-    <t>Revised folder structure</t>
   </si>
   <si>
     <t>Project Details</t>
@@ -2188,6 +2170,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2209,20 +2203,17 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2235,15 +2226,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2762,7 +2744,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2815,58 +2797,28 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="89">
-        <v>1</v>
-      </c>
-      <c r="C7" s="90">
-        <v>40207</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="116"/>
-      <c r="F7" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="89">
-        <v>2</v>
-      </c>
-      <c r="C8" s="90">
-        <v>40220</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="116"/>
-      <c r="F8" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="91"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="89">
-        <v>3</v>
-      </c>
-      <c r="C9" s="90">
-        <v>40242</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="116"/>
-      <c r="F9" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>13</v>
-      </c>
+      <c r="F9" s="91"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="41"/>
@@ -2927,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2959,7 +2911,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="6"/>
@@ -2970,16 +2922,18 @@
         <v>0</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" ht="16.25" customHeight="1">
       <c r="B7" s="121" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="121"/>
       <c r="D7" s="76" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="35"/>
     </row>
@@ -2987,7 +2941,7 @@
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
       <c r="D8" s="77" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" s="56"/>
     </row>
@@ -2995,7 +2949,7 @@
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="77" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="56"/>
     </row>
@@ -3003,13 +2957,13 @@
       <c r="B10" s="121"/>
       <c r="C10" s="121"/>
       <c r="D10" s="78" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10" s="79"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="77" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="118"/>
@@ -3018,21 +2972,21 @@
     <row r="12" spans="2:5">
       <c r="B12" s="77"/>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="119" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E12" s="120"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="77"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="114" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -3040,7 +2994,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="80"/>
       <c r="E14" s="114" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -3048,7 +3002,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="80"/>
       <c r="E15" s="114" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -3056,26 +3010,26 @@
       <c r="C16" s="82"/>
       <c r="D16" s="78"/>
       <c r="E16" s="115" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="77" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="77" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="83" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" s="21"/>
     </row>
@@ -3084,7 +3038,7 @@
       <c r="C19" s="56"/>
       <c r="D19" s="77"/>
       <c r="E19" s="56" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -3092,7 +3046,7 @@
       <c r="C20" s="56"/>
       <c r="D20" s="77"/>
       <c r="E20" s="56" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -3100,7 +3054,7 @@
       <c r="C21" s="56"/>
       <c r="D21" s="77"/>
       <c r="E21" s="56" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -3108,7 +3062,7 @@
       <c r="C22" s="56"/>
       <c r="D22" s="77"/>
       <c r="E22" s="56" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -3116,7 +3070,7 @@
       <c r="C23" s="56"/>
       <c r="D23" s="77"/>
       <c r="E23" s="56" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -3124,14 +3078,14 @@
       <c r="C24" s="56"/>
       <c r="D24" s="77"/>
       <c r="E24" s="56" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="77"/>
       <c r="C25" s="56"/>
       <c r="D25" s="77" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E25" s="56"/>
     </row>
@@ -3140,7 +3094,7 @@
       <c r="C26" s="56"/>
       <c r="D26" s="77"/>
       <c r="E26" s="56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -3148,7 +3102,7 @@
       <c r="C27" s="56"/>
       <c r="D27" s="77"/>
       <c r="E27" s="56" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -3156,7 +3110,7 @@
       <c r="C28" s="56"/>
       <c r="D28" s="77"/>
       <c r="E28" s="56" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -3164,7 +3118,7 @@
       <c r="C29" s="56"/>
       <c r="D29" s="77"/>
       <c r="E29" s="56" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -3172,7 +3126,7 @@
       <c r="C30" s="56"/>
       <c r="D30" s="77"/>
       <c r="E30" s="56" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -3180,7 +3134,7 @@
       <c r="C31" s="56"/>
       <c r="D31" s="77"/>
       <c r="E31" s="56" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -3188,7 +3142,7 @@
       <c r="C32" s="56"/>
       <c r="D32" s="77"/>
       <c r="E32" s="56" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -3196,7 +3150,7 @@
       <c r="C33" s="56"/>
       <c r="D33" s="77"/>
       <c r="E33" s="56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -3204,7 +3158,7 @@
       <c r="C34" s="56"/>
       <c r="D34" s="77"/>
       <c r="E34" s="56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -3212,7 +3166,7 @@
       <c r="C35" s="56"/>
       <c r="D35" s="77"/>
       <c r="E35" s="56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -3220,7 +3174,7 @@
       <c r="C36" s="56"/>
       <c r="D36" s="77"/>
       <c r="E36" s="56" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -3228,7 +3182,7 @@
       <c r="C37" s="56"/>
       <c r="D37" s="77"/>
       <c r="E37" s="56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -3236,7 +3190,7 @@
       <c r="C38" s="56"/>
       <c r="D38" s="77"/>
       <c r="E38" s="56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -3244,7 +3198,7 @@
       <c r="C39" s="56"/>
       <c r="D39" s="77"/>
       <c r="E39" s="56" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -3252,7 +3206,7 @@
       <c r="C40" s="56"/>
       <c r="D40" s="77"/>
       <c r="E40" s="56" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -3260,7 +3214,7 @@
       <c r="C41" s="56"/>
       <c r="D41" s="77"/>
       <c r="E41" s="56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -3268,7 +3222,7 @@
       <c r="C42" s="85"/>
       <c r="D42" s="81"/>
       <c r="E42" s="85" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +3254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
@@ -3334,7 +3288,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="5"/>
@@ -3343,57 +3297,57 @@
     </row>
     <row r="6" spans="2:6" ht="29.25" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="123" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6" s="123"/>
       <c r="E6" s="123"/>
     </row>
     <row r="7" spans="2:6" ht="12.75" customHeight="1">
       <c r="B7" s="63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="125" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="126"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="5"/>
@@ -3402,17 +3356,17 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="127"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="5"/>
@@ -3420,66 +3374,66 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="122" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="122"/>
       <c r="D16" s="67" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="62" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="64"/>
       <c r="C18" s="70"/>
       <c r="D18" s="71" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="73" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3506,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="6"/>
@@ -3562,85 +3516,85 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E6" s="93"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E7" s="93"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" s="113" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E8" s="93"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" s="113" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="113" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E10" s="93"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11" s="113" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E11" s="93"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="128" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="129" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D12" s="138" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E12" s="137"/>
     </row>
@@ -3658,13 +3612,13 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E15" s="137"/>
     </row>
@@ -3679,7 +3633,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="6"/>
@@ -3689,47 +3643,47 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="130" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" s="130"/>
       <c r="D19" s="94" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="68.75" customHeight="1">
       <c r="B20" s="52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
       <c r="D21" s="131" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E21" s="132"/>
       <c r="F21" s="132"/>
@@ -3738,26 +3692,26 @@
     <row r="22" spans="2:7" ht="203" customHeight="1">
       <c r="B22" s="57"/>
       <c r="C22" s="21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
       <c r="D23" s="131" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E23" s="132"/>
       <c r="F23" s="132"/>
@@ -3765,29 +3719,29 @@
     </row>
     <row r="24" spans="2:7" ht="137.25" customHeight="1">
       <c r="B24" s="52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="18" customHeight="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
       <c r="D25" s="131" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="132"/>
       <c r="F25" s="132"/>
@@ -3795,29 +3749,29 @@
     </row>
     <row r="26" spans="2:7" ht="42">
       <c r="B26" s="52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
       <c r="D27" s="131" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E27" s="132"/>
       <c r="F27" s="132"/>
@@ -3825,29 +3779,29 @@
     </row>
     <row r="28" spans="2:7" ht="182">
       <c r="B28" s="52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
       <c r="D29" s="131" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
@@ -3855,22 +3809,22 @@
     </row>
     <row r="30" spans="2:7" ht="135.75" customHeight="1">
       <c r="B30" s="52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="12.75" customHeight="1">
@@ -3878,36 +3832,36 @@
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="133" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
     </row>
     <row r="32" spans="2:7" ht="135.75" customHeight="1">
       <c r="B32" s="52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
       <c r="D33" s="131" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E33" s="132"/>
       <c r="F33" s="132"/>
@@ -3915,29 +3869,29 @@
     </row>
     <row r="34" spans="2:7" ht="176" customHeight="1">
       <c r="B34" s="52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G34" s="54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
       <c r="D35" s="134" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E35" s="135"/>
       <c r="F35" s="135"/>
@@ -3984,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4000,7 +3954,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="23">
       <c r="B2" s="106" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C2" s="37"/>
     </row>
@@ -4012,29 +3966,29 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="39" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="110" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C8" s="111">
-        <v>180000</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="107" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C9" s="111">
         <v>3000</v>
@@ -4042,7 +3996,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="107" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C10" s="111">
         <v>5000</v>
@@ -4050,7 +4004,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="107" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C11" s="111">
         <v>20000</v>
@@ -4058,7 +4012,7 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="107" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C12" s="111">
         <v>500</v>
@@ -4066,7 +4020,7 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="107" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C13" s="111">
         <v>20</v>
@@ -4074,13 +4028,13 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="107" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C14" s="111"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="107" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C15" s="111">
         <v>0</v>
@@ -4088,7 +4042,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="107" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" s="111">
         <v>0</v>
@@ -4096,13 +4050,13 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="107" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C17" s="111"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="108" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C18" s="112">
         <v>0</v>
@@ -4110,7 +4064,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="108" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C19" s="112">
         <v>0</v>
@@ -4118,7 +4072,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="108" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C20" s="112">
         <v>0</v>
@@ -4126,7 +4080,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="109" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C21" s="112">
         <v>0</v>
@@ -4134,11 +4088,11 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C22" s="43">
         <f>SUM(C8:C21)</f>
-        <v>208520</v>
+        <v>206520</v>
       </c>
     </row>
   </sheetData>
@@ -4196,7 +4150,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4204,453 +4158,453 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="148"/>
+        <v>119</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="141"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B8" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="143"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B9" s="150"/>
+      <c r="C9" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="144"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B10" s="150"/>
+      <c r="C10" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="144"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B11" s="150"/>
+      <c r="C11" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="D11" s="152"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B12" s="150"/>
+      <c r="C12" s="152" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="152"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="145" t="s">
+      <c r="C13" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="D13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="146"/>
-      <c r="C9" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="146"/>
-      <c r="C10" s="152" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="146"/>
-      <c r="C11" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="146"/>
-      <c r="C12" s="149" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>135</v>
-      </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="148" t="s">
-        <v>139</v>
+      <c r="B16" s="141" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="148"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="63"/>
       <c r="D17" s="97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="148"/>
-      <c r="C18" s="141" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="142" t="s">
-        <v>143</v>
+      <c r="B18" s="141"/>
+      <c r="C18" s="145" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="146" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="148"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="30"/>
       <c r="D19" s="98" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="148"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="30"/>
       <c r="D20" s="98" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="148"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D21" s="98"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="148"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="30"/>
       <c r="D22" s="98" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="148"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="30"/>
       <c r="D23" s="98" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="148"/>
-      <c r="C24" s="141" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="142"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="145" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="146"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="148"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="30"/>
       <c r="D25" s="98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="148"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="30"/>
       <c r="D26" s="98" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="148"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="30"/>
       <c r="D27" s="98" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="148"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="30"/>
       <c r="D28" s="98" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="148"/>
-      <c r="C29" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="142" t="s">
-        <v>143</v>
+      <c r="B29" s="141"/>
+      <c r="C29" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="146" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="148"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="30"/>
       <c r="D30" s="98" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="148"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="30"/>
       <c r="D31" s="98" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="148"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="30"/>
       <c r="D32" s="98" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="148"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="30"/>
       <c r="D33" s="98" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="148"/>
-      <c r="C34" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="142"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="146"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="148"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="30"/>
       <c r="D35" s="98" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="148"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="30"/>
       <c r="D36" s="98" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="148"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="30"/>
       <c r="D37" s="98" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="148"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="30"/>
       <c r="D38" s="98" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="148"/>
-      <c r="C39" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="142" t="s">
-        <v>143</v>
+      <c r="B39" s="141"/>
+      <c r="C39" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="146" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="148"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="30"/>
       <c r="D40" s="98" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B41" s="148"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="30"/>
       <c r="D41" s="98" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="148"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="30"/>
       <c r="D42" s="98" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="148"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="30"/>
       <c r="D43" s="98" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="148"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D44" s="98"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="148"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="30"/>
       <c r="D45" s="98" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="148"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="36"/>
       <c r="D46" s="99" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="148"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="36"/>
       <c r="D47" s="99" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="148"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="36"/>
       <c r="D48" s="99" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="148"/>
-      <c r="C49" s="141" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="142" t="s">
-        <v>143</v>
+      <c r="B49" s="141"/>
+      <c r="C49" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="146" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="148"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="148"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="30"/>
       <c r="D51" s="98" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="148"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="36"/>
       <c r="D52" s="102" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="148"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="144" t="s">
-        <v>143</v>
+      <c r="B53" s="141"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="148" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D54" s="103" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
       <c r="D55" s="104" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="D56" s="104" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
       <c r="D57" s="104" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
       <c r="D58" s="104" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
       <c r="D59" s="104" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
       <c r="D60" s="104" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
       <c r="D61" s="104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
       <c r="D62" s="104" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="29"/>
       <c r="C63" s="30"/>
       <c r="D63" s="104" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="21.75" customHeight="1">
       <c r="B64" s="32"/>
       <c r="C64" s="33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D64" s="105" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4662,11 +4616,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4679,6 +4628,11 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4695,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4727,7 +4681,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4735,190 +4689,190 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="148"/>
+        <v>183</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="141"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B8" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B9" s="159"/>
+      <c r="C9" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="154"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="159"/>
+      <c r="C10" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="155"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="159"/>
+      <c r="C11" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="155"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="156" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="156"/>
-      <c r="C9" s="159" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="156"/>
-      <c r="C10" s="157" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="147" t="s">
-        <v>133</v>
-      </c>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="147"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="147" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="153" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="153"/>
+      <c r="B15" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="156" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="156"/>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="147"/>
-      <c r="C16" s="154" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="154"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="157"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="147"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
       <c r="D20" s="31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
       <c r="D22" s="31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
       <c r="D27" s="31" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="21.75" customHeight="1">
       <c r="B28" s="32"/>
       <c r="C28" s="33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4930,11 +4884,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -4942,6 +4891,11 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4987,53 +4941,53 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:4" ht="24" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" s="160" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="148"/>
+        <v>205</v>
+      </c>
+      <c r="D7" s="141"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" s="161" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D8" s="162"/>
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1">
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D9" s="162"/>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C10" s="164" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D10" s="165"/>
     </row>
     <row r="11" spans="2:4" ht="33.5" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C11" s="166" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D11" s="167"/>
     </row>

--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIEL KENNETH\Documents\GitHub\MoneyTor\TV5 Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16660" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16665" tabRatio="792" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Configuration Management" sheetId="7" r:id="rId7"/>
     <sheet name="PMC" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Daniel Kenneth Sandimas - Personal View" guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="8"/>
   </customWorkbookViews>
@@ -34,7 +39,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="257">
   <si>
     <t>Project Name</t>
   </si>
@@ -161,13 +166,7 @@
     <t xml:space="preserve">This is a software to be made as a partial requirement </t>
   </si>
   <si>
-    <t xml:space="preserve">for the &lt;CS/IT140&gt; Software Engineering class. The software that the team </t>
-  </si>
-  <si>
     <t>shall develop will apply the process of project management.  This</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software &lt;continue&gt; </t>
   </si>
   <si>
     <t>Project Team</t>
@@ -562,10 +561,6 @@
     <t>Examples:</t>
   </si>
   <si>
-    <t xml:space="preserve">DigitalOrganizer_Requirements_Specification_v1.00
-</t>
-  </si>
-  <si>
     <t>Folder Structure</t>
   </si>
   <si>
@@ -804,9 +799,6 @@
   </si>
   <si>
     <t>5.  Librarian should notify Project Coordinator for  succeeding versions of the document after it is already confirmed before storing to the library.</t>
-  </si>
-  <si>
-    <t>XXX's laptop, stored in Drive E:\mario newinters\softeng with the folder name "Digital Organizer"</t>
   </si>
   <si>
     <t>Installation Manual</t>
@@ -924,6 +916,40 @@
   </si>
   <si>
     <t>GitHub Online Repository stored in https://github.com/TV5/MoneyTor</t>
+  </si>
+  <si>
+    <t>DK's laptop, stored in Drive C:\Users\DANIEL KENNETH\Documents\GitHub\MoneyTor\TV5 Documents</t>
+  </si>
+  <si>
+    <t>to cater to the business needs of Henwil Marketing Company</t>
+  </si>
+  <si>
+    <t>by keeping track of the flow of money through storing large amounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for the CS140 Software Engineering class. The software that the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoneyTor_Requirements_Specification_v1.00
+</t>
+  </si>
+  <si>
+    <t>software is a web-based bussiness application specifically tailored</t>
+  </si>
+  <si>
+    <t>The software keeps track of the flow of money of the company through</t>
+  </si>
+  <si>
+    <t>storing large amounts of data from each transaction that has been done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software will then monitor, record and compute for the different </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts to be transacted by the company whether they be receivables </t>
+  </si>
+  <si>
+    <t>or payables.</t>
   </si>
 </sst>
 </file>
@@ -934,7 +960,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Php&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1248,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1775,6 +1801,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1820,7 +1866,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2170,9 +2216,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2182,29 +2252,20 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2212,21 +2273,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2250,6 +2296,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2345,14 +2412,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2679,7 +2746,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2721,7 +2788,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2744,32 +2811,32 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
+    <row r="2" spans="2:7" ht="23.25">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="2:7" ht="23">
+    <row r="3" spans="2:7" ht="23.25">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:7" ht="23">
+    <row r="4" spans="2:7" ht="23.25">
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
     </row>
@@ -2851,6 +2918,7 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0">
       <selection activeCell="G6" sqref="G6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -2877,31 +2945,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E42"/>
+  <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
+    <row r="2" spans="2:5" ht="23.25">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="23.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2923,11 +2991,11 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:5" ht="16.25" customHeight="1">
+    <row r="7" spans="2:5" ht="16.350000000000001" customHeight="1">
       <c r="B7" s="121" t="s">
         <v>10</v>
       </c>
@@ -2937,164 +3005,164 @@
       </c>
       <c r="E7" s="35"/>
     </row>
-    <row r="8" spans="2:5" ht="16.25" customHeight="1">
+    <row r="8" spans="2:5" ht="16.350000000000001" customHeight="1">
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
-      <c r="D8" s="77" t="s">
-        <v>12</v>
+      <c r="D8" s="170" t="s">
+        <v>249</v>
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="2:5" ht="14.75" customHeight="1">
+    <row r="9" spans="2:5" ht="14.85" customHeight="1">
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B10" s="121"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="170" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="173" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B14" s="121"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="174" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="173" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="2:5" ht="14.85" customHeight="1">
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="173" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="168" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="56"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="78" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="77"/>
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="79"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="77"/>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="120"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="77"/>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="114" t="s">
+      <c r="D19" s="119" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="77"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="114" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="77"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="114" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="115" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="56"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="84"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="56" t="s">
-        <v>243</v>
-      </c>
+      <c r="E19" s="120"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="77"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="56" t="s">
-        <v>244</v>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="114" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="77"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="56" t="s">
-        <v>245</v>
+      <c r="C21" s="6"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="114" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="77"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="56" t="s">
-        <v>246</v>
+      <c r="C22" s="6"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="114" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="77"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="56" t="s">
-        <v>247</v>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="115" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="77"/>
+      <c r="B24" s="77" t="s">
+        <v>16</v>
+      </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="56" t="s">
-        <v>248</v>
-      </c>
+      <c r="D24" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="56"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="77"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="56"/>
+      <c r="B25" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="77"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="56"/>
       <c r="D26" s="77"/>
       <c r="E26" s="56" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -3102,7 +3170,7 @@
       <c r="C27" s="56"/>
       <c r="D27" s="77"/>
       <c r="E27" s="56" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -3110,7 +3178,7 @@
       <c r="C28" s="56"/>
       <c r="D28" s="77"/>
       <c r="E28" s="56" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -3118,7 +3186,7 @@
       <c r="C29" s="56"/>
       <c r="D29" s="77"/>
       <c r="E29" s="56" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -3126,7 +3194,7 @@
       <c r="C30" s="56"/>
       <c r="D30" s="77"/>
       <c r="E30" s="56" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -3134,23 +3202,23 @@
       <c r="C31" s="56"/>
       <c r="D31" s="77"/>
       <c r="E31" s="56" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="77"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="56" t="s">
-        <v>28</v>
-      </c>
+      <c r="D32" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="56"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="77"/>
       <c r="C33" s="56"/>
       <c r="D33" s="77"/>
       <c r="E33" s="56" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -3158,7 +3226,7 @@
       <c r="C34" s="56"/>
       <c r="D34" s="77"/>
       <c r="E34" s="56" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -3166,7 +3234,7 @@
       <c r="C35" s="56"/>
       <c r="D35" s="77"/>
       <c r="E35" s="56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -3174,7 +3242,7 @@
       <c r="C36" s="56"/>
       <c r="D36" s="77"/>
       <c r="E36" s="56" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -3182,7 +3250,7 @@
       <c r="C37" s="56"/>
       <c r="D37" s="77"/>
       <c r="E37" s="56" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -3190,7 +3258,7 @@
       <c r="C38" s="56"/>
       <c r="D38" s="77"/>
       <c r="E38" s="56" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -3198,7 +3266,7 @@
       <c r="C39" s="56"/>
       <c r="D39" s="77"/>
       <c r="E39" s="56" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -3206,7 +3274,7 @@
       <c r="C40" s="56"/>
       <c r="D40" s="77"/>
       <c r="E40" s="56" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -3214,34 +3282,91 @@
       <c r="C41" s="56"/>
       <c r="D41" s="77"/>
       <c r="E41" s="56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="81"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="85" t="s">
-        <v>36</v>
+      <c r="B42" s="77"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="77"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="77"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="77"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="77"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="77"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="77"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="81"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="85" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A13">
       <selection activeCell="E19" sqref="E19:E23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B7:C17"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3255,29 +3380,29 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="6" max="6" width="59.1640625" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
+    <row r="2" spans="2:6" ht="23.25">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="2:6" ht="23">
+    <row r="3" spans="2:6" ht="23.25">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
@@ -3288,7 +3413,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="5"/>
@@ -3297,57 +3422,57 @@
     </row>
     <row r="6" spans="2:6" ht="29.25" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="123"/>
       <c r="E6" s="123"/>
     </row>
     <row r="7" spans="2:6" ht="12.75" customHeight="1">
       <c r="B7" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="124" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="126"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="5"/>
@@ -3356,17 +3481,17 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="127"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="5"/>
@@ -3374,72 +3499,73 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="122"/>
       <c r="D16" s="67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="64"/>
       <c r="C18" s="70"/>
       <c r="D18" s="71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="71" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="75" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" scale="145" showGridLines="0" topLeftCell="A7">
       <selection activeCell="C17" sqref="C17:C20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -3470,23 +3596,23 @@
   <dimension ref="B2:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="28.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="28.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
+    <row r="2" spans="2:7" ht="23.25">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3494,7 +3620,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="23">
+    <row r="3" spans="2:7" ht="23.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3632,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="6"/>
@@ -3516,85 +3642,85 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E6" s="93"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E7" s="93"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="113" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E8" s="93"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="113" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="113" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E10" s="93"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="113" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E11" s="93"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="129" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="138" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="137"/>
     </row>
@@ -3612,13 +3738,13 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="138" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="138" t="s">
-        <v>69</v>
       </c>
       <c r="E15" s="137"/>
     </row>
@@ -3633,7 +3759,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="6"/>
@@ -3643,75 +3769,75 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="130" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="130"/>
       <c r="D19" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="51" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="68.849999999999994" customHeight="1">
+      <c r="B20" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="68.75" customHeight="1">
-      <c r="B20" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="F20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="54" t="s">
         <v>77</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
       <c r="D21" s="131" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="132"/>
       <c r="F21" s="132"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="2:7" ht="203" customHeight="1">
+    <row r="22" spans="2:7" ht="203.1" customHeight="1">
       <c r="B22" s="57"/>
       <c r="C22" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
       <c r="D23" s="131" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="132"/>
       <c r="F23" s="132"/>
@@ -3719,89 +3845,89 @@
     </row>
     <row r="24" spans="2:7" ht="137.25" customHeight="1">
       <c r="B24" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="54" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="18" customHeight="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
       <c r="D25" s="131" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" s="132"/>
       <c r="F25" s="132"/>
       <c r="G25" s="133"/>
     </row>
-    <row r="26" spans="2:7" ht="42">
+    <row r="26" spans="2:7" ht="60">
       <c r="B26" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
       <c r="D27" s="131" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="132"/>
       <c r="F27" s="132"/>
       <c r="G27" s="133"/>
     </row>
-    <row r="28" spans="2:7" ht="182">
+    <row r="28" spans="2:7" ht="225">
       <c r="B28" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
       <c r="D29" s="131" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
@@ -3809,22 +3935,22 @@
     </row>
     <row r="30" spans="2:7" ht="135.75" customHeight="1">
       <c r="B30" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="12.75" customHeight="1">
@@ -3832,66 +3958,66 @@
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="133" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
     </row>
     <row r="32" spans="2:7" ht="135.75" customHeight="1">
       <c r="B32" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="G32" s="54" t="s">
         <v>102</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
       <c r="D33" s="131" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="132"/>
       <c r="F33" s="132"/>
       <c r="G33" s="133"/>
     </row>
-    <row r="34" spans="2:7" ht="176" customHeight="1">
+    <row r="34" spans="2:7" ht="176.1" customHeight="1">
       <c r="B34" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="54" t="s">
         <v>107</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
       <c r="D35" s="134" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" s="135"/>
       <c r="F35" s="135"/>
@@ -3901,6 +4027,7 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A22">
       <selection activeCell="G20" sqref="G20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -3938,27 +4065,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="255" width="8.83203125" customWidth="1"/>
+    <col min="6" max="255" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="23">
+    <row r="2" spans="2:3" ht="23.25">
       <c r="B2" s="106" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="23.25">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
@@ -3966,21 +4093,21 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="110" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C8" s="111">
         <v>178000</v>
@@ -3988,7 +4115,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="107" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" s="111">
         <v>3000</v>
@@ -3996,7 +4123,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="107" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C10" s="111">
         <v>5000</v>
@@ -4004,7 +4131,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="107" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C11" s="111">
         <v>20000</v>
@@ -4012,7 +4139,7 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="111">
         <v>500</v>
@@ -4020,7 +4147,7 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="111">
         <v>20</v>
@@ -4028,13 +4155,13 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="111"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="107" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C15" s="111">
         <v>0</v>
@@ -4042,7 +4169,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="107" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C16" s="111">
         <v>0</v>
@@ -4050,13 +4177,13 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="107" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C17" s="111"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="108" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C18" s="112">
         <v>0</v>
@@ -4064,7 +4191,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="108" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C19" s="112">
         <v>0</v>
@@ -4072,7 +4199,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="108" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C20" s="112">
         <v>0</v>
@@ -4080,7 +4207,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="109" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C21" s="112">
         <v>0</v>
@@ -4088,7 +4215,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="43">
         <f>SUM(C8:C21)</f>
@@ -4099,6 +4226,7 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0">
       <selection activeCell="B14" sqref="B14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -4118,29 +4246,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="108.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="6.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="108.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23">
+    <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="23.25">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4150,7 +4278,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4158,464 +4286,470 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="141"/>
+        <v>117</v>
+      </c>
+      <c r="C6" s="148" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B8" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C8" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="149" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B9" s="146"/>
+      <c r="C9" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="D9" s="152"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B10" s="146"/>
+      <c r="C10" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="143"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="150"/>
-      <c r="C9" s="144" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B11" s="146"/>
+      <c r="C11" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="150"/>
-      <c r="C10" s="144" t="s">
+      <c r="D11" s="149"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B12" s="146"/>
+      <c r="C12" s="149" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="149"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="150"/>
-      <c r="C11" s="152" t="s">
+      <c r="C13" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="152"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="150"/>
-      <c r="C12" s="152" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="151" t="s">
+      <c r="D13" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>129</v>
-      </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="151"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5" ht="72" customHeight="1">
+      <c r="B15" s="147"/>
+      <c r="C15" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="151"/>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="141" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="141"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="63"/>
       <c r="D17" s="97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="141"/>
-      <c r="C18" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="146" t="s">
-        <v>137</v>
+      <c r="B18" s="148"/>
+      <c r="C18" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="141"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="30"/>
       <c r="D19" s="98" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="141"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="30"/>
       <c r="D20" s="98" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="141"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="98"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="141"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="30"/>
       <c r="D22" s="98" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="141"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="30"/>
       <c r="D23" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="148"/>
+      <c r="C24" s="141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="141"/>
-      <c r="C24" s="145" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="146"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="141"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="30"/>
       <c r="D25" s="98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="141"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="30"/>
       <c r="D26" s="98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="141"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="30"/>
       <c r="D27" s="98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="141"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="30"/>
       <c r="D28" s="98" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="141"/>
-      <c r="C29" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="146" t="s">
-        <v>137</v>
+      <c r="B29" s="148"/>
+      <c r="C29" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="142" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="141"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="30"/>
       <c r="D30" s="98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="141"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="30"/>
       <c r="D31" s="98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="141"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="30"/>
       <c r="D32" s="98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="141"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="30"/>
       <c r="D33" s="98" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="141"/>
-      <c r="C34" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="146"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="142"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="141"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="30"/>
       <c r="D35" s="98" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="141"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="30"/>
       <c r="D36" s="98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="141"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="30"/>
       <c r="D37" s="98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="141"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="30"/>
       <c r="D38" s="98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="141"/>
-      <c r="C39" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="146" t="s">
-        <v>137</v>
+      <c r="B39" s="148"/>
+      <c r="C39" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="142" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="141"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="30"/>
       <c r="D40" s="98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B41" s="141"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="30"/>
       <c r="D41" s="98" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="141"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="30"/>
       <c r="D42" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="141"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="30"/>
       <c r="D43" s="98" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="141"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D44" s="98"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="141"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="30"/>
       <c r="D45" s="98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="141"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="36"/>
       <c r="D46" s="99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="141"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="36"/>
       <c r="D47" s="99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="141"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="36"/>
       <c r="D48" s="99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="141"/>
-      <c r="C49" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="146" t="s">
-        <v>137</v>
+      <c r="B49" s="148"/>
+      <c r="C49" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="142" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="141"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="141"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="30"/>
       <c r="D51" s="98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="141"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="36"/>
       <c r="D52" s="102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="141"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="148" t="s">
-        <v>137</v>
+      <c r="B53" s="148"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D54" s="103" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
       <c r="D55" s="104" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="D56" s="104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
       <c r="D57" s="104" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
       <c r="D58" s="104" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
       <c r="D59" s="104" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
       <c r="D60" s="104" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
       <c r="D61" s="104" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
       <c r="D62" s="104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="29"/>
       <c r="C63" s="30"/>
       <c r="D63" s="104" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="21.75" customHeight="1">
       <c r="B64" s="32"/>
       <c r="C64" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D64" s="105" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A36">
       <selection activeCell="D58" sqref="D58"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4628,14 +4762,9 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4649,29 +4778,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="108.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="6.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="108.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23">
+    <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="23.25">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4681,7 +4810,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4689,201 +4818,207 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="141"/>
+        <v>180</v>
+      </c>
+      <c r="C6" s="148" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="142"/>
+        <v>118</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="150"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="156" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="158"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B9" s="156"/>
+      <c r="C9" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="159"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="156"/>
+      <c r="C10" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="D10" s="157"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="156"/>
+      <c r="C11" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="159"/>
-      <c r="C9" s="154" t="s">
+      <c r="D11" s="157"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="159"/>
-      <c r="C10" s="155" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="159"/>
-      <c r="C11" s="155" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="151" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="151"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="151"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="153"/>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B16" s="147"/>
+      <c r="C16" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="151" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="156" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="156"/>
-    </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="151"/>
-      <c r="C16" s="157" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="154"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="151"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
       <c r="D20" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
       <c r="D22" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
       <c r="D27" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="21.75" customHeight="1">
       <c r="B28" s="32"/>
       <c r="C28" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0" topLeftCell="A10">
       <selection activeCell="D18" sqref="D18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -4891,11 +5026,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4913,26 +5043,26 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="69.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="23">
+    <row r="2" spans="2:4" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" ht="23">
+    <row r="3" spans="2:4" ht="23.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4941,53 +5071,53 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:4" ht="24" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C7" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="141"/>
+        <v>202</v>
+      </c>
+      <c r="D7" s="148"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" s="161" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" s="162"/>
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1">
       <c r="B9" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D9" s="162"/>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="164" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D10" s="165"/>
     </row>
-    <row r="11" spans="2:4" ht="33.5" customHeight="1">
+    <row r="11" spans="2:4" ht="33.6" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="166" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D11" s="167"/>
     </row>
@@ -4995,6 +5125,7 @@
   <customSheetViews>
     <customSheetView guid="{2924C6AB-DDCD-48AD-80E4-78E30A982609}" showGridLines="0">
       <selection activeCell="C9" sqref="C9:D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>

--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16665" tabRatio="792" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="16665" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Sheet" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="259">
   <si>
     <t>Project Name</t>
   </si>
@@ -950,6 +950,12 @@
   </si>
   <si>
     <t>or payables.</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>Initial Draft</t>
   </si>
 </sst>
 </file>
@@ -2141,6 +2147,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2183,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2216,6 +2243,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2237,20 +2276,17 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2264,15 +2300,6 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2296,27 +2323,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2412,14 +2418,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2746,7 +2752,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2788,7 +2794,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2810,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2852,10 +2858,10 @@
       <c r="C6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="117"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="88" t="s">
         <v>6</v>
       </c>
@@ -2864,50 +2870,56 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="90">
+        <v>42195</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="122"/>
       <c r="F7" s="91"/>
       <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="89"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="91"/>
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="89"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="91"/>
       <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="41"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
     </row>
@@ -2996,91 +3008,91 @@
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" ht="16.350000000000001" customHeight="1">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="76" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" ht="16.350000000000001" customHeight="1">
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="170" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="117" t="s">
         <v>249</v>
       </c>
       <c r="E8" s="56"/>
     </row>
     <row r="9" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="56"/>
     </row>
     <row r="10" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B10" s="121"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="172" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="119" t="s">
         <v>251</v>
       </c>
       <c r="E10" s="56"/>
     </row>
     <row r="11" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="170" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="117" t="s">
         <v>247</v>
       </c>
       <c r="E11" s="56"/>
     </row>
     <row r="12" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="77" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="173" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="120" t="s">
         <v>252</v>
       </c>
       <c r="E13" s="56"/>
     </row>
     <row r="14" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B14" s="121"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="174" t="s">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="121" t="s">
         <v>253</v>
       </c>
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="173" t="s">
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="120" t="s">
         <v>254</v>
       </c>
       <c r="E15" s="56"/>
     </row>
     <row r="16" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="173" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="120" t="s">
         <v>255</v>
       </c>
       <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="168" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="116" t="s">
         <v>256</v>
       </c>
       <c r="E17" s="79"/>
@@ -3090,18 +3102,18 @@
         <v>13</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="77"/>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="125" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="126"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="77"/>
@@ -3424,51 +3436,51 @@
       <c r="B6" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="2:6" ht="12.75" customHeight="1">
       <c r="B7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4" t="s">
@@ -3483,11 +3495,11 @@
       <c r="B13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="39" t="s">
@@ -3498,10 +3510,10 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="122"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="67" t="s">
         <v>46</v>
       </c>
@@ -3713,28 +3725,28 @@
       <c r="E11" s="93"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="137"/>
+      <c r="E12" s="144"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="137"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="144"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="137"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="144"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="47" t="s">
@@ -3743,16 +3755,16 @@
       <c r="C15" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="137"/>
+      <c r="E15" s="144"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="144"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="E17" s="6"/>
@@ -3768,10 +3780,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="130"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="94" t="s">
         <v>71</v>
       </c>
@@ -3808,12 +3820,12 @@
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="131" t="s">
+      <c r="D21" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="2:7" ht="203.1" customHeight="1">
       <c r="B22" s="57"/>
@@ -3836,12 +3848,12 @@
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="133"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
     </row>
     <row r="24" spans="2:7" ht="137.25" customHeight="1">
       <c r="B24" s="52" t="s">
@@ -3866,12 +3878,12 @@
     <row r="25" spans="2:7" ht="18" customHeight="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="131" t="s">
+      <c r="D25" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="133"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="2:7" ht="60">
       <c r="B26" s="52" t="s">
@@ -3896,12 +3908,12 @@
     <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="131" t="s">
+      <c r="D27" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="133"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="2:7" ht="225">
       <c r="B28" s="52" t="s">
@@ -3926,12 +3938,12 @@
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="133"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="2:7" ht="135.75" customHeight="1">
       <c r="B30" s="52" t="s">
@@ -3957,11 +3969,11 @@
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
-      <c r="E31" s="133" t="s">
+      <c r="E31" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
     </row>
     <row r="32" spans="2:7" ht="135.75" customHeight="1">
       <c r="B32" s="52" t="s">
@@ -3986,12 +3998,12 @@
     <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="131" t="s">
+      <c r="D33" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
     </row>
     <row r="34" spans="2:7" ht="176.1" customHeight="1">
       <c r="B34" s="52" t="s">
@@ -4016,12 +4028,12 @@
     <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="134" t="s">
+      <c r="D35" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="136"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -4246,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D54" sqref="D54:D63"/>
     </sheetView>
   </sheetViews>
@@ -4298,56 +4310,56 @@
       <c r="B7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="151"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="146"/>
-      <c r="C9" s="152" t="s">
+      <c r="B9" s="157"/>
+      <c r="C9" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="152"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="146"/>
-      <c r="C10" s="152" t="s">
+      <c r="B10" s="157"/>
+      <c r="C10" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="152"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="146"/>
-      <c r="C11" s="149" t="s">
+      <c r="B11" s="157"/>
+      <c r="C11" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="149"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="146"/>
-      <c r="C12" s="149" t="s">
+      <c r="B12" s="157"/>
+      <c r="C12" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="149"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="158" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4359,7 +4371,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>128</v>
@@ -4367,11 +4379,11 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="171" t="s">
+      <c r="D15" s="118" t="s">
         <v>250</v>
       </c>
       <c r="E15" s="17"/>
@@ -4394,10 +4406,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="148"/>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="153" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4438,10 +4450,10 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="148"/>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="142"/>
+      <c r="D24" s="153"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="148"/>
@@ -4473,10 +4485,10 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="148"/>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="142" t="s">
+      <c r="D29" s="153" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4510,10 +4522,10 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="148"/>
-      <c r="C34" s="141" t="s">
+      <c r="C34" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="142"/>
+      <c r="D34" s="153"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="148"/>
@@ -4545,10 +4557,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="148"/>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="153" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4617,10 +4629,10 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="148"/>
-      <c r="C49" s="141" t="s">
+      <c r="C49" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="142" t="s">
+      <c r="D49" s="153" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4647,8 +4659,8 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="148"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="144" t="s">
+      <c r="C53" s="154"/>
+      <c r="D53" s="155" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4745,11 +4757,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4762,6 +4769,11 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4830,48 +4842,48 @@
       <c r="B7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="156"/>
-      <c r="C9" s="159" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="156"/>
-      <c r="C10" s="157" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="157"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="157"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="158" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4883,7 +4895,7 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="147"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
         <v>128</v>
@@ -4891,7 +4903,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="24" t="s">
         <v>129</v>
       </c>
@@ -4901,25 +4913,25 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="163" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="163"/>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="147"/>
-      <c r="C16" s="154" t="s">
+      <c r="B16" s="158"/>
+      <c r="C16" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="164"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="147"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
@@ -5014,11 +5026,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -5026,6 +5033,11 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5080,7 +5092,7 @@
       <c r="B7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="167" t="s">
         <v>202</v>
       </c>
       <c r="D7" s="148"/>
@@ -5089,37 +5101,37 @@
       <c r="B8" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="169"/>
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="169"/>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="165"/>
+      <c r="D10" s="172"/>
     </row>
     <row r="11" spans="2:4" ht="33.6" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="174"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIEL KENNETH\Documents\GitHub\MoneyTor\TV5 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trisha Lim\Documents\GitHub\MoneyTor\TV5 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="256">
   <si>
     <t>Project Name</t>
   </si>
@@ -288,15 +288,6 @@
   </si>
   <si>
     <t>occurs.</t>
-  </si>
-  <si>
-    <t>The Project Room cannot be available for use.</t>
-  </si>
-  <si>
-    <t>Coordinate with the Lab Head or the working scholars when using the room</t>
-  </si>
-  <si>
-    <t>Bring a laptop with completely installed tools for project making.</t>
   </si>
   <si>
     <t>Funds diverted to other projects</t>
@@ -777,9 +768,6 @@
     <t>Weekly Progress Meeting Schedule</t>
   </si>
   <si>
-    <t>Every Saturday at 12:00 - 12:30pm</t>
-  </si>
-  <si>
     <t>Weekly Progress Submission</t>
   </si>
   <si>
@@ -861,18 +849,6 @@
     <t>Slack</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Fare</t>
-  </si>
-  <si>
     <t>5 laptops</t>
   </si>
   <si>
@@ -892,9 +868,6 @@
   </si>
   <si>
     <t>Ivan Wesley Chua</t>
-  </si>
-  <si>
-    <t>Trisha Jean Lim (limtrishajean@gmail.com)</t>
   </si>
   <si>
     <t>*ACCOUNT PAYABLES</t>
@@ -952,10 +925,28 @@
     <t>or payables.</t>
   </si>
   <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
     <t>Initial Draft</t>
+  </si>
+  <si>
+    <t>Trisha Jean Lim &lt;limtrishajean@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Sonia Margarette Vidal &lt;natsumeluka@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Joseph Gabriell Palmaras &lt;josephpalmaras@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Daniel Kenneth Sandimas &lt;dksandimas@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Ivan Wesley Chua &lt;ivanwchua@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Every Saturday at 2:00 - 3:00 PM</t>
+  </si>
+  <si>
+    <t>01.00.00</t>
   </si>
 </sst>
 </file>
@@ -2043,9 +2034,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2168,6 +2156,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2243,9 +2234,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2255,50 +2270,26 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2418,14 +2409,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2752,7 +2743,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2794,7 +2785,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2817,7 +2808,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2832,7 +2823,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="37"/>
     </row>
@@ -2843,65 +2834,69 @@
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="23.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="123" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="123"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="90">
+      <c r="B7" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="89">
         <v>42195</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E7" s="122"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="41"/>
+      <c r="F7" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="122"/>
       <c r="E8" s="122"/>
-      <c r="F8" s="91"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="122"/>
       <c r="E9" s="122"/>
-      <c r="F9" s="91"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="41"/>
-      <c r="C10" s="90"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="122"/>
       <c r="E10" s="122"/>
       <c r="F10" s="41"/>
@@ -2924,7 +2919,7 @@
       <c r="G12" s="41"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="92"/>
+      <c r="B16" s="91"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2959,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2975,7 +2970,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3003,7 +2998,7 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E6" s="21"/>
     </row>
@@ -3012,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="127"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="35"/>
@@ -3020,15 +3015,15 @@
     <row r="8" spans="2:5" ht="16.350000000000001" customHeight="1">
       <c r="B8" s="127"/>
       <c r="C8" s="127"/>
-      <c r="D8" s="117" t="s">
-        <v>249</v>
+      <c r="D8" s="116" t="s">
+        <v>240</v>
       </c>
       <c r="E8" s="56"/>
     </row>
     <row r="9" spans="2:5" ht="14.85" customHeight="1">
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="56"/>
@@ -3036,69 +3031,69 @@
     <row r="10" spans="2:5" ht="14.85" customHeight="1">
       <c r="B10" s="127"/>
       <c r="C10" s="128"/>
-      <c r="D10" s="119" t="s">
-        <v>251</v>
+      <c r="D10" s="118" t="s">
+        <v>242</v>
       </c>
       <c r="E10" s="56"/>
     </row>
     <row r="11" spans="2:5" ht="14.85" customHeight="1">
       <c r="B11" s="127"/>
       <c r="C11" s="127"/>
-      <c r="D11" s="117" t="s">
-        <v>247</v>
+      <c r="D11" s="116" t="s">
+        <v>238</v>
       </c>
       <c r="E11" s="56"/>
     </row>
     <row r="12" spans="2:5" ht="14.85" customHeight="1">
       <c r="B12" s="127"/>
       <c r="C12" s="127"/>
-      <c r="D12" s="77" t="s">
-        <v>248</v>
+      <c r="D12" s="76" t="s">
+        <v>239</v>
       </c>
       <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="14.85" customHeight="1">
       <c r="B13" s="127"/>
       <c r="C13" s="127"/>
-      <c r="D13" s="120" t="s">
-        <v>252</v>
+      <c r="D13" s="119" t="s">
+        <v>243</v>
       </c>
       <c r="E13" s="56"/>
     </row>
     <row r="14" spans="2:5" ht="14.85" customHeight="1">
       <c r="B14" s="127"/>
       <c r="C14" s="128"/>
-      <c r="D14" s="121" t="s">
-        <v>253</v>
+      <c r="D14" s="120" t="s">
+        <v>244</v>
       </c>
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:5" ht="14.85" customHeight="1">
       <c r="B15" s="127"/>
       <c r="C15" s="127"/>
-      <c r="D15" s="120" t="s">
-        <v>254</v>
+      <c r="D15" s="119" t="s">
+        <v>245</v>
       </c>
       <c r="E15" s="56"/>
     </row>
     <row r="16" spans="2:5" ht="14.85" customHeight="1">
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
-      <c r="D16" s="120" t="s">
-        <v>255</v>
+      <c r="D16" s="119" t="s">
+        <v>246</v>
       </c>
       <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="127"/>
       <c r="C17" s="127"/>
-      <c r="D17" s="116" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" s="79"/>
+      <c r="D17" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="78"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="76" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="6"/>
@@ -3106,61 +3101,61 @@
       <c r="E18" s="124"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="77"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="125" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E19" s="126"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="77"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="114" t="s">
-        <v>234</v>
+      <c r="D20" s="79"/>
+      <c r="E20" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="77"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="114" t="s">
-        <v>235</v>
+      <c r="D21" s="79"/>
+      <c r="E21" s="113" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="77"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="114" t="s">
-        <v>236</v>
+      <c r="D22" s="79"/>
+      <c r="E22" s="113" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="115" t="s">
-        <v>237</v>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="114" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="77" t="s">
-        <v>211</v>
+      <c r="D24" s="76" t="s">
+        <v>207</v>
       </c>
       <c r="E24" s="56"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="21"/>
@@ -3170,194 +3165,194 @@
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="84"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="77"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="56" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="77"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="77"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="56" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="77"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="77"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="56" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="77"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="77"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="56" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="77"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="77"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="56" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="77"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="77"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="56" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="77"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="76" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="56"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="77"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="77"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="56" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="77"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="77"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="56" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="77"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="77"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="77"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="77"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="77"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="77"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="77"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="56"/>
-      <c r="D38" s="77"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="77"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="56"/>
-      <c r="D39" s="77"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="77"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="77"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="56" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="77"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="56"/>
-      <c r="D41" s="77"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="56" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="77"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="56"/>
-      <c r="D42" s="77"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="77"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="77"/>
+      <c r="D43" s="76"/>
       <c r="E43" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="77"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="56"/>
-      <c r="D44" s="77"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="56" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="77"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="56"/>
-      <c r="D45" s="77"/>
+      <c r="D45" s="76"/>
       <c r="E45" s="56" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="77"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="56"/>
-      <c r="D46" s="77"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="77"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="56"/>
-      <c r="D47" s="77"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="56" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="77"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="56"/>
-      <c r="D48" s="77"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="56" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="81"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="85" t="s">
+      <c r="B49" s="80"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="84" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3389,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3407,7 +3402,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -3546,31 +3541,17 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="74" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3624,7 +3605,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3644,7 +3625,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="6"/>
@@ -3657,12 +3638,12 @@
         <v>36</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="93"/>
+        <v>57</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="45" t="s">
@@ -3671,68 +3652,68 @@
       <c r="C7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="93"/>
+      <c r="D7" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="92"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="93"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="93"/>
+        <v>59</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="93"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="92"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="93"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="92"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="135" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="145" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="145" t="s">
-        <v>67</v>
       </c>
       <c r="E12" s="144"/>
     </row>
@@ -3750,13 +3731,13 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="145" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="144"/>
     </row>
@@ -3771,7 +3752,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="6"/>
@@ -3781,20 +3762,20 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="137" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="137"/>
+      <c r="D19" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="95" t="s">
+      <c r="G19" s="50" t="s">
         <v>70</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="68.849999999999994" customHeight="1">
@@ -3802,26 +3783,26 @@
         <v>36</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
       <c r="D21" s="138" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="139"/>
       <c r="F21" s="139"/>
@@ -3833,23 +3814,23 @@
         <v>8</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="54" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
       <c r="D23" s="138" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="139"/>
       <c r="F23" s="139"/>
@@ -3860,26 +3841,26 @@
         <v>36</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E24" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="54" t="s">
         <v>84</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="18" customHeight="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
       <c r="D25" s="138" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="139"/>
       <c r="F25" s="139"/>
@@ -3890,26 +3871,26 @@
         <v>36</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="54" t="s">
         <v>88</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
       <c r="D27" s="138" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" s="139"/>
       <c r="F27" s="139"/>
@@ -3920,26 +3901,26 @@
         <v>36</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
       <c r="D29" s="138" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E29" s="139"/>
       <c r="F29" s="139"/>
@@ -3950,19 +3931,19 @@
         <v>36</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="12.75" customHeight="1">
@@ -3970,7 +3951,7 @@
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="140" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F31" s="140"/>
       <c r="G31" s="140"/>
@@ -3980,26 +3961,26 @@
         <v>36</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="54" t="s">
         <v>99</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
       <c r="D33" s="138" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E33" s="139"/>
       <c r="F33" s="139"/>
@@ -4007,29 +3988,29 @@
     </row>
     <row r="34" spans="2:7" ht="176.1" customHeight="1">
       <c r="B34" s="52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="54" t="s">
         <v>104</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
       <c r="D35" s="141" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" s="142"/>
       <c r="F35" s="142"/>
@@ -4075,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4092,8 +4073,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="23.25">
-      <c r="B2" s="106" t="s">
-        <v>221</v>
+      <c r="B2" s="105" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="37"/>
     </row>
@@ -4105,75 +4086,77 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C9" s="110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="106" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="111">
-        <v>178000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="107" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="111">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="111">
-        <v>5000</v>
+      <c r="C10" s="110">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="111">
-        <v>20000</v>
+      <c r="B11" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="110">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="111">
-        <v>500</v>
+      <c r="B12" s="106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="110">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="111">
-        <v>20</v>
+      <c r="B13" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="110">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="111"/>
+      <c r="B14" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="110">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="107" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C15" s="111">
         <v>0</v>
@@ -4181,57 +4164,27 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="107" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="111"/>
+      <c r="B17" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="111">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="43">
+        <f>SUM(C8:C17)</f>
         <v>220</v>
-      </c>
-      <c r="C18" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="108" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="109" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="43">
-        <f>SUM(C8:C21)</f>
-        <v>206520</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="D54" sqref="D54:D63"/>
     </sheetView>
   </sheetViews>
@@ -4274,7 +4227,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -4290,7 +4243,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4298,453 +4251,453 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="148"/>
+        <v>114</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="155"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B8" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B9" s="153"/>
+      <c r="C9" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="156" t="s">
+      <c r="D9" s="159"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B10" s="153"/>
+      <c r="C10" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="D10" s="159"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B11" s="153"/>
+      <c r="C11" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="157"/>
-      <c r="C9" s="151" t="s">
+      <c r="D11" s="156"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B12" s="153"/>
+      <c r="C12" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="156"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="151" t="s">
+      <c r="C13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="157"/>
-      <c r="C11" s="159" t="s">
+      <c r="D13" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="157"/>
-      <c r="C12" s="159" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="158" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="158"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5" ht="72" customHeight="1">
+      <c r="B15" s="154"/>
+      <c r="C15" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="158"/>
-      <c r="C15" s="24" t="s">
+      <c r="D16" s="95"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="155"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="148" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="155"/>
+      <c r="C18" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="D18" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="96"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="148"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="97" t="s">
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="155"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="97" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="148"/>
-      <c r="C18" s="152" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="155"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="153" t="s">
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="155"/>
+      <c r="C21" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="148"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="98" t="s">
+      <c r="D21" s="97"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="155"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="148"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="98" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="155"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="155"/>
+      <c r="C24" s="148" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="148"/>
-      <c r="C21" s="30" t="s">
+      <c r="D24" s="149"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="155"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="98"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="148"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="98" t="s">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="155"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="97" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="148"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="148"/>
-      <c r="C24" s="152" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="155"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="153"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="148"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="98" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="155"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="155"/>
+      <c r="C29" s="148" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="148"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="98" t="s">
+      <c r="D29" s="149" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="155"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="148"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="98" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="155"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="97" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="148"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="148"/>
-      <c r="C29" s="152" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="155"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="148"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="98" t="s">
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="155"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="148"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="98" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="155"/>
+      <c r="C34" s="148" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="148"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="98" t="s">
+      <c r="D34" s="149"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="155"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="148"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="98" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="155"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="97" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="148"/>
-      <c r="C34" s="152" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="155"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="153"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="148"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="98" t="s">
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="155"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="97" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="148"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="98" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="155"/>
+      <c r="C39" s="148" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="148"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="98" t="s">
+      <c r="D39" s="149" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="155"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="148"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="98" t="s">
+    <row r="41" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B41" s="155"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="97" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="148"/>
-      <c r="C39" s="152" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="155"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="148"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="98" t="s">
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="155"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="155"/>
+      <c r="C44" s="30" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B41" s="148"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="98" t="s">
+      <c r="D44" s="97"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="155"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="97" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="148"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="98" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" s="155"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="98" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="148"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="98" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="148"/>
-      <c r="C44" s="30" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="155"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="98"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="148"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="98" t="s">
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="155"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="98" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="148"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="99" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="155"/>
+      <c r="C49" s="148" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="148"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="99" t="s">
+      <c r="D49" s="149" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="155"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="148"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="99" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="155"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="148"/>
-      <c r="C49" s="152" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="155"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="148"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="148"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="148"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="102" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="148"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="155" t="s">
-        <v>134</v>
+      <c r="B53" s="155"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="151" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="103" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
-      <c r="D55" s="104" t="s">
-        <v>169</v>
+      <c r="D55" s="103" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="104" t="s">
-        <v>170</v>
+      <c r="D56" s="103" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="104" t="s">
-        <v>171</v>
+      <c r="D57" s="103" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
-      <c r="D58" s="104" t="s">
-        <v>172</v>
+      <c r="D58" s="103" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
-      <c r="D59" s="104" t="s">
-        <v>173</v>
+      <c r="D59" s="103" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="104" t="s">
-        <v>174</v>
+      <c r="D60" s="103" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="104" t="s">
-        <v>175</v>
+      <c r="D61" s="103" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="104" t="s">
-        <v>176</v>
+      <c r="D62" s="103" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="29"/>
       <c r="C63" s="30"/>
-      <c r="D63" s="104" t="s">
-        <v>177</v>
+      <c r="D63" s="103" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="21.75" customHeight="1">
       <c r="B64" s="32"/>
       <c r="C64" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="105" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="D64" s="104" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4757,6 +4710,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4769,11 +4727,6 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4806,7 +4759,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -4822,7 +4775,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4830,190 +4783,190 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="148"/>
+        <v>177</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="155"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="149" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="149"/>
+        <v>115</v>
+      </c>
+      <c r="C7" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="157"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="163" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="165"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B9" s="163"/>
+      <c r="C9" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="166"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="D10" s="164"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="163"/>
+      <c r="C11" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="166"/>
-      <c r="C9" s="161" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="166"/>
-      <c r="C10" s="162" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="166"/>
-      <c r="C11" s="162" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="158" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>186</v>
-      </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="158"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="158"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="160"/>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B16" s="154"/>
+      <c r="C16" s="161" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="158" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="163" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="163"/>
-    </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="158"/>
-      <c r="C16" s="164" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="161"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="158"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
       <c r="D20" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
       <c r="D22" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
       <c r="D27" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="21.75" customHeight="1">
       <c r="B28" s="32"/>
       <c r="C28" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5026,6 +4979,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -5033,11 +4991,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5055,7 +5008,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5069,7 +5022,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="23.25">
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5083,53 +5036,53 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:4" ht="24" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="148"/>
+        <v>254</v>
+      </c>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8" s="169"/>
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1">
       <c r="B9" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C9" s="170" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D9" s="169"/>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C10" s="171" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D10" s="172"/>
     </row>
     <row r="11" spans="2:4" ht="33.6" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C11" s="173" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D11" s="174"/>
     </row>

--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -952,10 +952,10 @@
     <t>or payables.</t>
   </si>
   <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
     <t>Initial Draft</t>
+  </si>
+  <si>
+    <t>01.00.00</t>
   </si>
 </sst>
 </file>
@@ -2243,9 +2243,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2255,50 +2279,26 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2418,14 +2418,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2752,7 +2752,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2794,7 +2794,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2817,7 +2817,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2871,13 +2871,13 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C7" s="90">
         <v>42195</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="122"/>
       <c r="F7" s="91"/>
@@ -4300,66 +4300,66 @@
       <c r="B6" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="155" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="149"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="150"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="157"/>
-      <c r="C9" s="151" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="151"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="151" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="151"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="157"/>
-      <c r="C11" s="159" t="s">
+      <c r="B11" s="153"/>
+      <c r="C11" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="157"/>
-      <c r="C12" s="159" t="s">
+      <c r="B12" s="153"/>
+      <c r="C12" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="154" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4371,7 +4371,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="158"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>128</v>
@@ -4379,7 +4379,7 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="158"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="24" t="s">
         <v>129</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="155" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="62" t="s">
@@ -4398,269 +4398,269 @@
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="148"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="63"/>
       <c r="D17" s="97" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="148"/>
-      <c r="C18" s="152" t="s">
+      <c r="B18" s="155"/>
+      <c r="C18" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="153" t="s">
+      <c r="D18" s="149" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="148"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="30"/>
       <c r="D19" s="98" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="148"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="30"/>
       <c r="D20" s="98" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="148"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="30" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="98"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="148"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="30"/>
       <c r="D22" s="98" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="148"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="30"/>
       <c r="D23" s="98" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="148"/>
-      <c r="C24" s="152" t="s">
+      <c r="B24" s="155"/>
+      <c r="C24" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="153"/>
+      <c r="D24" s="149"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="148"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="30"/>
       <c r="D25" s="98" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="148"/>
+      <c r="B26" s="155"/>
       <c r="C26" s="30"/>
       <c r="D26" s="98" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="148"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="30"/>
       <c r="D27" s="98" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="148"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="30"/>
       <c r="D28" s="98" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="148"/>
-      <c r="C29" s="152" t="s">
+      <c r="B29" s="155"/>
+      <c r="C29" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="153" t="s">
+      <c r="D29" s="149" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="148"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="30"/>
       <c r="D30" s="98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="148"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="30"/>
       <c r="D31" s="98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="148"/>
+      <c r="B32" s="155"/>
       <c r="C32" s="30"/>
       <c r="D32" s="98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="148"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="30"/>
       <c r="D33" s="98" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="148"/>
-      <c r="C34" s="152" t="s">
+      <c r="B34" s="155"/>
+      <c r="C34" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="153"/>
+      <c r="D34" s="149"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="148"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="30"/>
       <c r="D35" s="98" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="148"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="30"/>
       <c r="D36" s="98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="148"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="30"/>
       <c r="D37" s="98" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="148"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="30"/>
       <c r="D38" s="98" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="148"/>
-      <c r="C39" s="152" t="s">
+      <c r="B39" s="155"/>
+      <c r="C39" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="153" t="s">
+      <c r="D39" s="149" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="148"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="30"/>
       <c r="D40" s="98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B41" s="148"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="30"/>
       <c r="D41" s="98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="148"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="30"/>
       <c r="D42" s="98" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="148"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="30"/>
       <c r="D43" s="98" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="148"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="30" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="98"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="148"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="30"/>
       <c r="D45" s="98" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="148"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="36"/>
       <c r="D46" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="148"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="36"/>
       <c r="D47" s="99" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="148"/>
+      <c r="B48" s="155"/>
       <c r="C48" s="36"/>
       <c r="D48" s="99" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="148"/>
-      <c r="C49" s="152" t="s">
+      <c r="B49" s="155"/>
+      <c r="C49" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="153" t="s">
+      <c r="D49" s="149" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="148"/>
+      <c r="B50" s="155"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="148"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="30"/>
       <c r="D51" s="98" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="148"/>
+      <c r="B52" s="155"/>
       <c r="C52" s="36"/>
       <c r="D52" s="102" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="148"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="155" t="s">
+      <c r="B53" s="155"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="151" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4757,6 +4757,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4769,11 +4774,6 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4832,58 +4832,58 @@
       <c r="B6" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="149"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="160"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="166"/>
-      <c r="C9" s="161" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="166"/>
-      <c r="C10" s="162" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="166"/>
-      <c r="C11" s="162" t="s">
+      <c r="B11" s="163"/>
+      <c r="C11" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="154" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4895,7 +4895,7 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="158"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
         <v>128</v>
@@ -4903,7 +4903,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="158"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="24" t="s">
         <v>129</v>
       </c>
@@ -4913,25 +4913,25 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="163"/>
+      <c r="D15" s="160"/>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="158"/>
-      <c r="C16" s="164" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="161" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="161"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="158"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
@@ -5026,6 +5026,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -5033,11 +5038,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5095,7 +5095,7 @@
       <c r="C7" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="148"/>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1">
       <c r="B8" s="8" t="s">
